--- a/doc/manufacturers/hot_toys_bodies.xlsx
+++ b/doc/manufacturers/hot_toys_bodies.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D16:D28"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
